--- a/A2 - pyla limpo/foto escolhida/13-07-2023_09-11-04/tratamento.xlsx
+++ b/A2 - pyla limpo/foto escolhida/13-07-2023_09-11-04/tratamento.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0980707-89F0-4177-BF7C-CACB6AF8A3BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFBBC4-6030-40B9-9C41-F9263398EF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="filtro" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Plan1!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Plan1!$B$2:$B$105</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">filtro!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">filtro!$E$2:$E$91</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">filtro!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">filtro!$B$2:$B$91</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">filtro!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">filtro!$B$2:$B$91</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">filtro!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">filtro!$E$2:$E$91</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -3432,6 +3433,807 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6A1-4D94-A77E-761878B941B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$D$7:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Planilha1!$D$6,Planilha1!$D$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>158.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6A1-4D94-A77E-761878B941B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="505365391"/>
+        <c:axId val="505174239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="505365391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505174239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="505174239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505365391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -3503,7 +4305,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3541,7 +4343,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE582C71-A888-454F-86A2-796C8767D210}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Pixels Agregados</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3569,7 +4371,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3607,7 +4409,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BDF0065E-0469-4BFC-B593-BB490CDEB64D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Cobrimento</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3910,6 +4712,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -7004,6 +7846,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7915,6 +9273,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA504CA-194E-4616-95B7-C26A530D440A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8181,7 +9580,7 @@
   <dimension ref="A1:U74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9596,8 +10995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70EAAED-2E1F-4803-8270-B1973955EBA5}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13849,4 +15248,634 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA581F12-5645-427A-9FF5-FBF4FFBA6309}">
+  <dimension ref="A2:D74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>275</v>
+      </c>
+      <c r="D2">
+        <f>QUARTILE(B2:B74,1)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>263</v>
+      </c>
+      <c r="D3">
+        <f>QUARTILE(B2:B74,3)</f>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>369</v>
+      </c>
+      <c r="D4">
+        <f>D3-D2</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>430</v>
+      </c>
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>424</v>
+      </c>
+      <c r="D6">
+        <f>D2-D5*D4</f>
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>524</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>277</v>
+      </c>
+      <c r="D8">
+        <f>COUNT(B2:B74)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>306</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(B2:B74,"&lt;"&amp;D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>